--- a/2018.data.for.analyses.R/2018 egg counts/Data/List of nests to count.1.13.19.xlsx
+++ b/2018.data.for.analyses.R/2018 egg counts/Data/List of nests to count.1.13.19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\2018 summer\2018 Goby\2018 data for analyses, R\2018 egg counts\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\2018 summer\2018 Goby\Goby_reproduction_by_risk\2018.data.for.analyses.R\2018 egg counts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF48F9A-076B-40DE-AECC-2238FF505ECC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54525DE-DEE8-4F9E-9F34-F55F96B9C19C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="1080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List of nests to count.1.10.19'!$A$1:$V$492</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2329,23 +2336,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2670,7 +2661,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -3600,7 +3590,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>4</v>
       </c>
@@ -3650,7 +3640,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>4</v>
       </c>
@@ -3826,7 +3816,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>4</v>
       </c>
@@ -3867,7 +3857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -3908,7 +3898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -4031,7 +4021,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -4198,7 +4188,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -4248,7 +4238,7 @@
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
     </row>
-    <row r="37" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -4289,7 +4279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>4</v>
       </c>
@@ -4330,7 +4320,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>4</v>
       </c>
@@ -4371,7 +4361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>4</v>
       </c>
@@ -4421,7 +4411,7 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
     </row>
-    <row r="41" spans="1:22" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -4471,7 +4461,7 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
     </row>
-    <row r="42" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>4</v>
       </c>
@@ -4521,7 +4511,7 @@
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
     </row>
-    <row r="43" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>4</v>
       </c>
@@ -4562,7 +4552,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>4</v>
       </c>
@@ -4612,7 +4602,7 @@
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -4706,7 +4696,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>4</v>
       </c>
@@ -4756,7 +4746,7 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>4</v>
       </c>
@@ -4807,7 +4797,7 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>4</v>
       </c>
@@ -4857,7 +4847,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>4</v>
       </c>
@@ -4907,7 +4897,7 @@
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>4</v>
       </c>
@@ -4958,7 +4948,7 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>4</v>
       </c>
@@ -5009,7 +4999,7 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>4</v>
       </c>
@@ -5060,7 +5050,7 @@
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>4</v>
       </c>
@@ -5113,7 +5103,7 @@
       </c>
       <c r="V54" s="10"/>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>4</v>
       </c>
@@ -5164,7 +5154,7 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5205,7 +5195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5246,7 +5236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -5290,7 +5280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5331,7 +5321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -5372,7 +5362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5413,7 +5403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -5454,7 +5444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -5498,7 +5488,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5539,7 +5529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5586,7 +5576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5633,7 +5623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5680,7 +5670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5727,7 +5717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5774,7 +5764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5821,7 +5811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5868,7 +5858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5915,7 +5905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5962,7 +5952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -6009,7 +5999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -6056,7 +6046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -6103,7 +6093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -6150,7 +6140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6197,7 +6187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -6244,7 +6234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6291,7 +6281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6332,7 +6322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6414,7 +6404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -6455,7 +6445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6496,7 +6486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6537,7 +6527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -6578,7 +6568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -6619,7 +6609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -6660,7 +6650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -6701,7 +6691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -6742,7 +6732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -6783,7 +6773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -6824,7 +6814,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -6865,7 +6855,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6906,7 +6896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -6947,7 +6937,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -6988,7 +6978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7029,7 +7019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7070,7 +7060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7111,7 +7101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7152,7 +7142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7193,7 +7183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7234,7 +7224,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7275,7 +7265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7316,7 +7306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -7357,7 +7347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -7398,7 +7388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -7439,7 +7429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -7480,7 +7470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -7521,7 +7511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -7562,7 +7552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -7603,7 +7593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -7644,7 +7634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -7685,7 +7675,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -7726,7 +7716,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -7767,7 +7757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -7808,7 +7798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -7849,7 +7839,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -7890,7 +7880,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -7931,7 +7921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -7969,7 +7959,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -8007,7 +7997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -8048,7 +8038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -8089,7 +8079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -8130,7 +8120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -8171,7 +8161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -8212,7 +8202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -8253,7 +8243,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -8294,7 +8284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -8335,7 +8325,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -8376,7 +8366,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -8417,7 +8407,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -8458,7 +8448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -8500,7 +8490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -8541,7 +8531,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -8582,7 +8572,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -8623,7 +8613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -8664,7 +8654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -8705,7 +8695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -8746,7 +8736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -8787,7 +8777,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -8869,7 +8859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -8910,7 +8900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -8951,7 +8941,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -8992,7 +8982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -9033,7 +9023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -9074,7 +9064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -9115,7 +9105,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -9156,7 +9146,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>4</v>
       </c>
@@ -9206,7 +9196,7 @@
       <c r="U151" s="10"/>
       <c r="V151" s="10"/>
     </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>4</v>
       </c>
@@ -9256,7 +9246,7 @@
       <c r="U152" s="10"/>
       <c r="V152" s="10"/>
     </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>4</v>
       </c>
@@ -9306,7 +9296,7 @@
       <c r="U153" s="10"/>
       <c r="V153" s="10"/>
     </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>4</v>
       </c>
@@ -9356,7 +9346,7 @@
       <c r="U154" s="10"/>
       <c r="V154" s="10"/>
     </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>4</v>
       </c>
@@ -9406,7 +9396,7 @@
       <c r="U155" s="10"/>
       <c r="V155" s="10"/>
     </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>4</v>
       </c>
@@ -9456,7 +9446,7 @@
       <c r="U156" s="10"/>
       <c r="V156" s="10"/>
     </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>4</v>
       </c>
@@ -9506,7 +9496,7 @@
       <c r="U157" s="10"/>
       <c r="V157" s="10"/>
     </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -9547,7 +9537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -9588,7 +9578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -9629,7 +9619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -9670,7 +9660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -9708,7 +9698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4</v>
       </c>
@@ -9746,7 +9736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4</v>
       </c>
@@ -9784,7 +9774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -9832,7 +9822,7 @@
       <c r="U165"/>
       <c r="V165"/>
     </row>
-    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -9870,7 +9860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -9908,7 +9898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -9946,7 +9936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -9993,7 +9983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -10040,7 +10030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -10094,7 +10084,7 @@
       <c r="U171"/>
       <c r="V171"/>
     </row>
-    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -10132,7 +10122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -10170,7 +10160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -10208,7 +10198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -10246,7 +10236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -10284,7 +10274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -10325,7 +10315,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -10366,7 +10356,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -10407,7 +10397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -10448,7 +10438,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -10492,7 +10482,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -10533,7 +10523,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -10574,7 +10564,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="184" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -10624,7 +10614,7 @@
       <c r="U184"/>
       <c r="V184"/>
     </row>
-    <row r="185" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5</v>
       </c>
@@ -10674,7 +10664,7 @@
       <c r="U185"/>
       <c r="V185"/>
     </row>
-    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -10715,7 +10705,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5</v>
       </c>
@@ -10765,7 +10755,7 @@
       <c r="U187"/>
       <c r="V187"/>
     </row>
-    <row r="188" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -10815,7 +10805,7 @@
       <c r="U188"/>
       <c r="V188"/>
     </row>
-    <row r="189" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5</v>
       </c>
@@ -10865,7 +10855,7 @@
       <c r="U189"/>
       <c r="V189"/>
     </row>
-    <row r="190" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -10915,7 +10905,7 @@
       <c r="U190"/>
       <c r="V190"/>
     </row>
-    <row r="191" spans="1:22" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -10965,7 +10955,7 @@
       <c r="U191"/>
       <c r="V191"/>
     </row>
-    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -11006,7 +10996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5</v>
       </c>
@@ -11056,7 +11046,7 @@
       <c r="U193"/>
       <c r="V193"/>
     </row>
-    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5</v>
       </c>
@@ -11097,7 +11087,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:22" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -11147,7 +11137,7 @@
       <c r="U195"/>
       <c r="V195"/>
     </row>
-    <row r="196" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5</v>
       </c>
@@ -11197,7 +11187,7 @@
       <c r="U196"/>
       <c r="V196"/>
     </row>
-    <row r="197" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -11247,7 +11237,7 @@
       <c r="U197"/>
       <c r="V197"/>
     </row>
-    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5</v>
       </c>
@@ -11288,7 +11278,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>5</v>
       </c>
@@ -11340,7 +11330,7 @@
       <c r="U199" s="7"/>
       <c r="V199" s="7"/>
     </row>
-    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>5</v>
       </c>
@@ -11390,7 +11380,7 @@
       <c r="U200" s="5"/>
       <c r="V200" s="5"/>
     </row>
-    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5</v>
       </c>
@@ -11431,7 +11421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>5</v>
       </c>
@@ -11481,7 +11471,7 @@
       <c r="U202" s="7"/>
       <c r="V202" s="7"/>
     </row>
-    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>5</v>
       </c>
@@ -11533,7 +11523,7 @@
       <c r="U203" s="5"/>
       <c r="V203" s="5"/>
     </row>
-    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>5</v>
       </c>
@@ -11585,7 +11575,7 @@
       <c r="U204" s="5"/>
       <c r="V204" s="5"/>
     </row>
-    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>5</v>
       </c>
@@ -11635,7 +11625,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
     </row>
-    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -11676,7 +11666,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>5</v>
       </c>
@@ -11728,7 +11718,7 @@
       <c r="U207" s="5"/>
       <c r="V207" s="5"/>
     </row>
-    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5</v>
       </c>
@@ -11769,7 +11759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>5</v>
       </c>
@@ -11819,7 +11809,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
     </row>
-    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>5</v>
       </c>
@@ -11871,7 +11861,7 @@
       <c r="U210" s="5"/>
       <c r="V210" s="5"/>
     </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>5</v>
       </c>
@@ -11923,7 +11913,7 @@
       <c r="U211" s="5"/>
       <c r="V211" s="5"/>
     </row>
-    <row r="212" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -11973,7 +11963,7 @@
       <c r="U212"/>
       <c r="V212"/>
     </row>
-    <row r="213" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>5</v>
       </c>
@@ -12025,7 +12015,7 @@
       <c r="U213" s="5"/>
       <c r="V213" s="5"/>
     </row>
-    <row r="214" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -12075,7 +12065,7 @@
       <c r="U214"/>
       <c r="V214"/>
     </row>
-    <row r="215" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5</v>
       </c>
@@ -12125,7 +12115,7 @@
       <c r="U215"/>
       <c r="V215"/>
     </row>
-    <row r="216" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -12175,7 +12165,7 @@
       <c r="U216"/>
       <c r="V216"/>
     </row>
-    <row r="217" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -12225,7 +12215,7 @@
       <c r="U217"/>
       <c r="V217"/>
     </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -12266,7 +12256,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5</v>
       </c>
@@ -12307,7 +12297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -12348,7 +12338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -12389,7 +12379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -12430,7 +12420,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -12471,7 +12461,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -12521,7 +12511,7 @@
       <c r="U224"/>
       <c r="V224"/>
     </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -12562,7 +12552,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>5</v>
       </c>
@@ -12612,7 +12602,7 @@
       <c r="U226" s="10"/>
       <c r="V226" s="10"/>
     </row>
-    <row r="227" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>5</v>
       </c>
@@ -12662,7 +12652,7 @@
       <c r="U227" s="10"/>
       <c r="V227" s="10"/>
     </row>
-    <row r="228" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>5</v>
       </c>
@@ -12712,7 +12702,7 @@
       <c r="U228" s="10"/>
       <c r="V228" s="10"/>
     </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>5</v>
       </c>
@@ -12762,7 +12752,7 @@
       <c r="U229" s="10"/>
       <c r="V229" s="10"/>
     </row>
-    <row r="230" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>5</v>
       </c>
@@ -12812,7 +12802,7 @@
       <c r="U230" s="10"/>
       <c r="V230" s="10"/>
     </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -12853,7 +12843,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5</v>
       </c>
@@ -12894,7 +12884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5</v>
       </c>
@@ -12935,7 +12925,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -12976,7 +12966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5</v>
       </c>
@@ -13017,7 +13007,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -13058,7 +13048,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5</v>
       </c>
@@ -13099,7 +13089,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -13140,7 +13130,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5</v>
       </c>
@@ -13175,7 +13165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -13216,7 +13206,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5</v>
       </c>
@@ -13257,7 +13247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5</v>
       </c>
@@ -13298,7 +13288,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5</v>
       </c>
@@ -13339,7 +13329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5</v>
       </c>
@@ -13380,7 +13370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5</v>
       </c>
@@ -13421,7 +13411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -13462,7 +13452,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -13512,7 +13502,7 @@
       <c r="U247"/>
       <c r="V247"/>
     </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -13553,7 +13543,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -13594,7 +13584,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -13644,7 +13634,7 @@
       <c r="U250"/>
       <c r="V250"/>
     </row>
-    <row r="251" spans="1:22" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5</v>
       </c>
@@ -13694,7 +13684,7 @@
       <c r="U251"/>
       <c r="V251"/>
     </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -13735,7 +13725,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -13776,7 +13766,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -13817,7 +13807,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>5</v>
       </c>
@@ -13867,7 +13857,7 @@
       <c r="U255" s="10"/>
       <c r="V255" s="10"/>
     </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -13908,7 +13898,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>5</v>
       </c>
@@ -14043,7 +14033,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="260" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -14084,7 +14074,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="261" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -14125,7 +14115,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="262" spans="1:22" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5</v>
       </c>
@@ -14175,7 +14165,7 @@
       <c r="U262"/>
       <c r="V262"/>
     </row>
-    <row r="263" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5</v>
       </c>
@@ -14216,7 +14206,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="264" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5</v>
       </c>
@@ -14266,7 +14256,7 @@
       <c r="U264"/>
       <c r="V264"/>
     </row>
-    <row r="265" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5</v>
       </c>
@@ -14307,7 +14297,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>5</v>
       </c>
@@ -14348,7 +14338,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="267" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -14389,7 +14379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>5</v>
       </c>
@@ -14430,7 +14420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5</v>
       </c>
@@ -14512,7 +14502,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="271" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5</v>
       </c>
@@ -14553,7 +14543,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="272" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="10">
         <v>5</v>
       </c>
@@ -14603,7 +14593,7 @@
       <c r="U272" s="10"/>
       <c r="V272" s="10"/>
     </row>
-    <row r="273" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>5</v>
       </c>
@@ -14644,7 +14634,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="274" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>5</v>
       </c>
@@ -14685,7 +14675,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="275" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>5</v>
       </c>
@@ -14726,7 +14716,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="276" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5</v>
       </c>
@@ -14767,7 +14757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="277" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>5</v>
       </c>
@@ -14808,7 +14798,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>5</v>
       </c>
@@ -14858,7 +14848,7 @@
       <c r="U278"/>
       <c r="V278"/>
     </row>
-    <row r="279" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5</v>
       </c>
@@ -14899,7 +14889,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="280" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>5</v>
       </c>
@@ -14940,7 +14930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="281" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>5</v>
       </c>
@@ -14981,7 +14971,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="282" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>5</v>
       </c>
@@ -15022,7 +15012,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>5</v>
       </c>
@@ -15063,7 +15053,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="284" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>5</v>
       </c>
@@ -15104,7 +15094,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="285" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>5</v>
       </c>
@@ -15189,7 +15179,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>5</v>
       </c>
@@ -15239,7 +15229,7 @@
       <c r="U287"/>
       <c r="V287"/>
     </row>
-    <row r="288" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5</v>
       </c>
@@ -15280,7 +15270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="289" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>5</v>
       </c>
@@ -15321,7 +15311,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="290" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>5</v>
       </c>
@@ -15362,7 +15352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5</v>
       </c>
@@ -15403,7 +15393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="292" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>5</v>
       </c>
@@ -15444,7 +15434,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="293" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>5</v>
       </c>
@@ -15485,7 +15475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="294" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -15570,7 +15560,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="296" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>5</v>
       </c>
@@ -15611,7 +15601,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5</v>
       </c>
@@ -15661,7 +15651,7 @@
       <c r="U297"/>
       <c r="V297"/>
     </row>
-    <row r="298" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5</v>
       </c>
@@ -15702,7 +15692,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>5</v>
       </c>
@@ -15752,7 +15742,7 @@
       <c r="U299"/>
       <c r="V299"/>
     </row>
-    <row r="300" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5</v>
       </c>
@@ -15793,7 +15783,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5</v>
       </c>
@@ -15843,7 +15833,7 @@
       <c r="U301"/>
       <c r="V301"/>
     </row>
-    <row r="302" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -15928,7 +15918,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -16025,7 +16015,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="306" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -16075,7 +16065,7 @@
       <c r="U306"/>
       <c r="V306"/>
     </row>
-    <row r="307" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>6</v>
       </c>
@@ -16119,7 +16109,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="308" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>6</v>
       </c>
@@ -16169,7 +16159,7 @@
       <c r="U308"/>
       <c r="V308"/>
     </row>
-    <row r="309" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>6</v>
       </c>
@@ -16210,7 +16200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" s="13">
         <v>6</v>
       </c>
@@ -16260,7 +16250,7 @@
       <c r="U310" s="13"/>
       <c r="V310" s="13"/>
     </row>
-    <row r="311" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" s="10">
         <v>6</v>
       </c>
@@ -16310,7 +16300,7 @@
       <c r="U311" s="10"/>
       <c r="V311" s="10"/>
     </row>
-    <row r="312" spans="1:22" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>6</v>
       </c>
@@ -16360,7 +16350,7 @@
       <c r="U312"/>
       <c r="V312"/>
     </row>
-    <row r="313" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" s="10">
         <v>6</v>
       </c>
@@ -16410,7 +16400,7 @@
       <c r="U313" s="10"/>
       <c r="V313" s="10"/>
     </row>
-    <row r="314" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>6</v>
       </c>
@@ -16451,7 +16441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>6</v>
       </c>
@@ -16501,7 +16491,7 @@
       <c r="U315"/>
       <c r="V315"/>
     </row>
-    <row r="316" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6</v>
       </c>
@@ -16542,7 +16532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="13">
         <v>6</v>
       </c>
@@ -16594,7 +16584,7 @@
       <c r="U317" s="13"/>
       <c r="V317" s="13"/>
     </row>
-    <row r="318" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>6</v>
       </c>
@@ -16635,7 +16625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -16676,7 +16666,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="320" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>6</v>
       </c>
@@ -16717,7 +16707,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="321" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" s="10">
         <v>6</v>
       </c>
@@ -16767,7 +16757,7 @@
       <c r="U321" s="10"/>
       <c r="V321" s="10"/>
     </row>
-    <row r="322" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -16817,7 +16807,7 @@
       <c r="U322"/>
       <c r="V322"/>
     </row>
-    <row r="323" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6</v>
       </c>
@@ -16867,7 +16857,7 @@
       <c r="U323"/>
       <c r="V323"/>
     </row>
-    <row r="324" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6</v>
       </c>
@@ -16917,7 +16907,7 @@
       <c r="U324"/>
       <c r="V324"/>
     </row>
-    <row r="325" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -16958,7 +16948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" s="10">
         <v>6</v>
       </c>
@@ -17008,7 +16998,7 @@
       <c r="U326" s="10"/>
       <c r="V326" s="10"/>
     </row>
-    <row r="327" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -17049,7 +17039,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>6</v>
       </c>
@@ -17090,7 +17080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="329" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -17131,7 +17121,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="330" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -17172,7 +17162,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="331" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -17213,7 +17203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -17254,7 +17244,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="333" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6</v>
       </c>
@@ -17295,7 +17285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6</v>
       </c>
@@ -17336,7 +17326,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="335" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6</v>
       </c>
@@ -17377,7 +17367,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="336" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6</v>
       </c>
@@ -17427,7 +17417,7 @@
       <c r="U336"/>
       <c r="V336"/>
     </row>
-    <row r="337" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6</v>
       </c>
@@ -17468,7 +17458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -17509,7 +17499,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="339" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -17550,7 +17540,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="340" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -17591,7 +17581,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="341" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -17632,7 +17622,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="342" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6</v>
       </c>
@@ -17673,7 +17663,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="343" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -17714,7 +17704,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="344" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -17764,7 +17754,7 @@
       <c r="U344"/>
       <c r="V344"/>
     </row>
-    <row r="345" spans="1:22" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
         <v>6</v>
       </c>
@@ -17814,7 +17804,7 @@
       <c r="U345" s="10"/>
       <c r="V345" s="10"/>
     </row>
-    <row r="346" spans="1:22" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16">
         <v>6</v>
       </c>
@@ -17858,7 +17848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="347" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" s="16">
         <v>6</v>
       </c>
@@ -17910,7 +17900,7 @@
       <c r="U347" s="16"/>
       <c r="V347" s="16"/>
     </row>
-    <row r="348" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>6</v>
       </c>
@@ -17951,7 +17941,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="349" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -17992,7 +17982,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="350" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -18033,7 +18023,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="351" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6</v>
       </c>
@@ -18083,7 +18073,7 @@
       <c r="U351"/>
       <c r="V351"/>
     </row>
-    <row r="352" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" s="10">
         <v>6</v>
       </c>
@@ -18133,7 +18123,7 @@
       <c r="U352" s="10"/>
       <c r="V352" s="10"/>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6</v>
       </c>
@@ -18174,7 +18164,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6</v>
       </c>
@@ -18215,7 +18205,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -18256,7 +18246,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>6</v>
       </c>
@@ -18297,7 +18287,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>6</v>
       </c>
@@ -18338,7 +18328,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -18379,7 +18369,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6</v>
       </c>
@@ -18420,7 +18410,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6</v>
       </c>
@@ -18461,7 +18451,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -18502,7 +18492,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -18543,7 +18533,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6</v>
       </c>
@@ -18584,7 +18574,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>6</v>
       </c>
@@ -18625,7 +18615,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -18666,7 +18656,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -18707,7 +18697,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -18748,7 +18738,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -18789,7 +18779,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>6</v>
       </c>
@@ -18830,7 +18820,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>6</v>
       </c>
@@ -18871,7 +18861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="371" spans="1:22" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>6</v>
       </c>
@@ -18921,7 +18911,7 @@
       <c r="U371"/>
       <c r="V371"/>
     </row>
-    <row r="372" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -18962,7 +18952,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="373" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>6</v>
       </c>
@@ -19003,7 +18993,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="374" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>6</v>
       </c>
@@ -19044,7 +19034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>6</v>
       </c>
@@ -19085,7 +19075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="376" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -19126,7 +19116,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="377" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1</v>
       </c>
@@ -19155,7 +19145,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="378" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1</v>
       </c>
@@ -19184,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1</v>
       </c>
@@ -19213,7 +19203,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="380" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -19242,7 +19232,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="381" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1</v>
       </c>
@@ -19271,7 +19261,7 @@
         <v>5781</v>
       </c>
     </row>
-    <row r="382" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -19300,7 +19290,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="383" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -19329,7 +19319,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="384" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -19358,7 +19348,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1</v>
       </c>
@@ -19387,7 +19377,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -19416,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -19445,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -19474,7 +19464,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -19503,7 +19493,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -19532,7 +19522,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1</v>
       </c>
@@ -19561,7 +19551,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
@@ -19590,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1</v>
       </c>
@@ -19619,7 +19609,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -19648,7 +19638,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1</v>
       </c>
@@ -19677,7 +19667,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -19706,7 +19696,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1</v>
       </c>
@@ -19735,7 +19725,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -19764,7 +19754,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1</v>
       </c>
@@ -19793,7 +19783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1</v>
       </c>
@@ -19822,7 +19812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1</v>
       </c>
@@ -19851,7 +19841,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1</v>
       </c>
@@ -19880,7 +19870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1</v>
       </c>
@@ -19909,7 +19899,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1</v>
       </c>
@@ -19938,7 +19928,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1</v>
       </c>
@@ -19967,7 +19957,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1</v>
       </c>
@@ -19996,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1</v>
       </c>
@@ -20025,7 +20015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1</v>
       </c>
@@ -20054,7 +20044,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1</v>
       </c>
@@ -20083,7 +20073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1</v>
       </c>
@@ -20112,7 +20102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1</v>
       </c>
@@ -20141,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1</v>
       </c>
@@ -20170,7 +20160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1</v>
       </c>
@@ -20199,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1</v>
       </c>
@@ -20228,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -20257,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -20286,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -20344,7 +20334,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -20373,7 +20363,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -20402,7 +20392,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -20431,7 +20421,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -20460,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -20489,7 +20479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -20518,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -20547,7 +20537,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -20576,7 +20566,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -20605,7 +20595,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -20634,7 +20624,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -20663,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -20692,7 +20682,7 @@
         <v>5179</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -20721,7 +20711,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -20750,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -20779,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -20808,7 +20798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -20837,7 +20827,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -20866,7 +20856,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -20895,7 +20885,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -20924,7 +20914,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -20953,7 +20943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -20982,7 +20972,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -21011,7 +21001,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -21040,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -21069,7 +21059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -21098,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -21127,7 +21117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -21156,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -21185,7 +21175,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -21214,7 +21204,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -21243,7 +21233,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -21272,7 +21262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -21301,7 +21291,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -21330,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -21359,7 +21349,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -21388,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>3</v>
       </c>
@@ -21417,7 +21407,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>3</v>
       </c>
@@ -21446,7 +21436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>3</v>
       </c>
@@ -21475,7 +21465,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -21504,7 +21494,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>3</v>
       </c>
@@ -21533,7 +21523,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3</v>
       </c>
@@ -21562,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3</v>
       </c>
@@ -21591,7 +21581,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>3</v>
       </c>
@@ -21620,7 +21610,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -21649,7 +21639,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>3</v>
       </c>
@@ -21678,7 +21668,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>3</v>
       </c>
@@ -21707,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>3</v>
       </c>
@@ -21736,7 +21726,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>3</v>
       </c>
@@ -21765,7 +21755,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>3</v>
       </c>
@@ -21794,7 +21784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -21823,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>3</v>
       </c>
@@ -21852,7 +21842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>3</v>
       </c>
@@ -21881,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -21910,7 +21900,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>3</v>
       </c>
@@ -21939,7 +21929,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>3</v>
       </c>
@@ -21968,7 +21958,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>3</v>
       </c>
@@ -21997,7 +21987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>3</v>
       </c>
@@ -22026,7 +22016,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>3</v>
       </c>
@@ -22055,7 +22045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>3</v>
       </c>
@@ -22084,7 +22074,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>3</v>
       </c>
@@ -22113,7 +22103,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>3</v>
       </c>
@@ -22142,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>3</v>
       </c>
@@ -22171,7 +22161,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>3</v>
       </c>
@@ -22200,7 +22190,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>3</v>
       </c>
@@ -22229,7 +22219,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>3</v>
       </c>
@@ -22258,7 +22248,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>3</v>
       </c>
@@ -22287,7 +22277,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>3</v>
       </c>
@@ -22316,7 +22306,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>3</v>
       </c>
@@ -22345,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -22374,7 +22364,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3</v>
       </c>
@@ -22403,7 +22393,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3</v>
       </c>
@@ -22432,7 +22422,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>3</v>
       </c>
@@ -22461,7 +22451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>3</v>
       </c>
@@ -22492,11 +22482,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V492" xr:uid="{2A95A1DE-3B57-460A-8D3D-69808CC07BC1}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
     <sortState ref="A2:V492">
-      <sortCondition sortBy="cellColor" ref="A1:A492" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A1:A492" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
